--- a/Week 5/Week 5 Plan.xlsx
+++ b/Week 5/Week 5 Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877E02D9-F9E1-454A-99B7-FDA53C3FAE38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF199542-1833-45AC-8FC7-CDEBEADBE430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Binary Search(A very important topic for OT)(Compulsory from 2-17)</t>
   </si>
@@ -199,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,12 +228,17 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -457,12 +462,13 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="115.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -575,7 +581,9 @@
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -595,7 +603,9 @@
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -635,7 +645,7 @@
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -675,7 +685,7 @@
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -695,7 +705,7 @@
       <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -715,7 +725,7 @@
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -732,10 +742,10 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -755,7 +765,7 @@
       <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -775,7 +785,7 @@
       <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -795,7 +805,7 @@
       <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -812,10 +822,10 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -835,7 +845,7 @@
       <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -855,7 +865,7 @@
       <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -875,7 +885,7 @@
       <c r="A21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -895,7 +905,7 @@
       <c r="A22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -912,10 +922,10 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -935,7 +945,7 @@
       <c r="A24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -953,7 +963,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -971,7 +981,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -989,7 +999,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1007,7 +1017,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1024,7 +1034,7 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1041,7 +1051,7 @@
       <c r="P29" s="8"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1058,7 +1068,7 @@
       <c r="P30" s="8"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1075,7 +1085,7 @@
       <c r="P31" s="8"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1092,7 +1102,7 @@
       <c r="P32" s="8"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1109,7 +1119,7 @@
       <c r="P33" s="8"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1126,7 +1136,7 @@
       <c r="P34" s="8"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1143,7 +1153,7 @@
       <c r="P35" s="8"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -1160,7 +1170,7 @@
       <c r="P36" s="7"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1177,7 +1187,7 @@
       <c r="P37" s="7"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
